--- a/salidas/Ruta_decisión.xlsx
+++ b/salidas/Ruta_decisión.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AGB6"/>
+  <dimension ref="A1:AEP6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2901,120 +2901,6 @@
       <c r="AEP1" s="1" t="n">
         <v>818</v>
       </c>
-      <c r="AEQ1" s="1" t="n">
-        <v>819</v>
-      </c>
-      <c r="AER1" s="1" t="n">
-        <v>820</v>
-      </c>
-      <c r="AES1" s="1" t="n">
-        <v>821</v>
-      </c>
-      <c r="AET1" s="1" t="n">
-        <v>822</v>
-      </c>
-      <c r="AEU1" s="1" t="n">
-        <v>823</v>
-      </c>
-      <c r="AEV1" s="1" t="n">
-        <v>824</v>
-      </c>
-      <c r="AEW1" s="1" t="n">
-        <v>825</v>
-      </c>
-      <c r="AEX1" s="1" t="n">
-        <v>826</v>
-      </c>
-      <c r="AEY1" s="1" t="n">
-        <v>827</v>
-      </c>
-      <c r="AEZ1" s="1" t="n">
-        <v>828</v>
-      </c>
-      <c r="AFA1" s="1" t="n">
-        <v>829</v>
-      </c>
-      <c r="AFB1" s="1" t="n">
-        <v>830</v>
-      </c>
-      <c r="AFC1" s="1" t="n">
-        <v>831</v>
-      </c>
-      <c r="AFD1" s="1" t="n">
-        <v>832</v>
-      </c>
-      <c r="AFE1" s="1" t="n">
-        <v>833</v>
-      </c>
-      <c r="AFF1" s="1" t="n">
-        <v>834</v>
-      </c>
-      <c r="AFG1" s="1" t="n">
-        <v>835</v>
-      </c>
-      <c r="AFH1" s="1" t="n">
-        <v>836</v>
-      </c>
-      <c r="AFI1" s="1" t="n">
-        <v>837</v>
-      </c>
-      <c r="AFJ1" s="1" t="n">
-        <v>838</v>
-      </c>
-      <c r="AFK1" s="1" t="n">
-        <v>839</v>
-      </c>
-      <c r="AFL1" s="1" t="n">
-        <v>840</v>
-      </c>
-      <c r="AFM1" s="1" t="n">
-        <v>841</v>
-      </c>
-      <c r="AFN1" s="1" t="n">
-        <v>842</v>
-      </c>
-      <c r="AFO1" s="1" t="n">
-        <v>843</v>
-      </c>
-      <c r="AFP1" s="1" t="n">
-        <v>844</v>
-      </c>
-      <c r="AFQ1" s="1" t="n">
-        <v>845</v>
-      </c>
-      <c r="AFR1" s="1" t="n">
-        <v>846</v>
-      </c>
-      <c r="AFS1" s="1" t="n">
-        <v>847</v>
-      </c>
-      <c r="AFT1" s="1" t="n">
-        <v>848</v>
-      </c>
-      <c r="AFU1" s="1" t="n">
-        <v>849</v>
-      </c>
-      <c r="AFV1" s="1" t="n">
-        <v>850</v>
-      </c>
-      <c r="AFW1" s="1" t="n">
-        <v>851</v>
-      </c>
-      <c r="AFX1" s="1" t="n">
-        <v>852</v>
-      </c>
-      <c r="AFY1" s="1" t="n">
-        <v>853</v>
-      </c>
-      <c r="AFZ1" s="1" t="n">
-        <v>854</v>
-      </c>
-      <c r="AGA1" s="1" t="n">
-        <v>855</v>
-      </c>
-      <c r="AGB1" s="1" t="n">
-        <v>856</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -3753,511 +3639,511 @@
         <v>0</v>
       </c>
       <c r="IL2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IM2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IN2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IO2" t="n">
         <v>0</v>
       </c>
       <c r="IP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL2" t="n">
         <v>1</v>
       </c>
-      <c r="IQ2" t="n">
+      <c r="NM2" t="n">
         <v>1</v>
       </c>
-      <c r="IR2" t="n">
+      <c r="NN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NY2" t="n">
         <v>1</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ME2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ML2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="NC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="ND2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="NT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="NU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="NV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="NW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NY2" t="n">
-        <v>0</v>
       </c>
       <c r="NZ2" t="n">
         <v>1</v>
       </c>
       <c r="OA2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OK2" t="n">
         <v>1</v>
       </c>
-      <c r="OC2" t="n">
+      <c r="OL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OM2" t="n">
         <v>1</v>
       </c>
-      <c r="OD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OG2" t="n">
+      <c r="ON2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OU2" t="n">
         <v>1</v>
       </c>
-      <c r="OH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OI2" t="n">
+      <c r="OV2" t="n">
         <v>1</v>
       </c>
-      <c r="OJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ON2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OV2" t="n">
-        <v>0</v>
-      </c>
       <c r="OW2" t="n">
         <v>0</v>
       </c>
       <c r="OX2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OY2" t="n">
         <v>0</v>
@@ -5481,120 +5367,6 @@
         <v>0</v>
       </c>
       <c r="AEP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AER2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AES2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AET2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AGA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AGB2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5786,22 +5558,22 @@
         <v>0</v>
       </c>
       <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
         <v>1</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BP3" t="n">
         <v>1</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>0</v>
       </c>
       <c r="BQ3" t="n">
         <v>0</v>
@@ -5849,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="CF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG3" t="n">
         <v>0</v>
@@ -5879,64 +5651,64 @@
         <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD3" t="n">
         <v>1</v>
       </c>
-      <c r="CR3" t="n">
+      <c r="DE3" t="n">
         <v>1</v>
       </c>
-      <c r="CS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>0</v>
-      </c>
       <c r="DF3" t="n">
         <v>0</v>
       </c>
       <c r="DG3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
       </c>
       <c r="DI3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ3" t="n">
         <v>0</v>
@@ -5954,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP3" t="n">
         <v>0</v>
@@ -5963,13 +5735,13 @@
         <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU3" t="n">
         <v>0</v>
@@ -8063,120 +7835,6 @@
         <v>0</v>
       </c>
       <c r="AEP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AER3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AES3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AET3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AGA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AGB3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8917,7 +8575,7 @@
         <v>0</v>
       </c>
       <c r="IL4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IM4" t="n">
         <v>0</v>
@@ -8929,889 +8587,889 @@
         <v>0</v>
       </c>
       <c r="IP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="NZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ON4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="OZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="PE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="PF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="PG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="PH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="PI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="PJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="PK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="PL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="PM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="PN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="PO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="PP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="PQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="PR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="PS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="PT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="PU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="PV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="PW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="PX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="PY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="PZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="QA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="QB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="QC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="QD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="QE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="QF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="QG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="QH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="QI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="QJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="QK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="QL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="QM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="QN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="QO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="QP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="QQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="QR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="QS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="QT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="QU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="QV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="QW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="QX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="QY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="QZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="RA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="RB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="RC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="RD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="RE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="RF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="RG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="RH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="RI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="RJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="RK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="RL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="RM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="RN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="RO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="RP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="RQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="RR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="RS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="RT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="RU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="RV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="RW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="RX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="RY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="RZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="SA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="SB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="SC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="SD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="SE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="SF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="SG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="SH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="SI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="SJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="SK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="SL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="SM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="SN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="SO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="SP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="SQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="SR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="SS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ST4" t="n">
+        <v>0</v>
+      </c>
+      <c r="SU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="SV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="SW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="SX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="SY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TV4" t="n">
         <v>1</v>
       </c>
-      <c r="IQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="KZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="ME4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="ML4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="MZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="ND4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="NZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="ON4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="OZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="PA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="PB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="PC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="PD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="PE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="PF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="PG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="PH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="PI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="PJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="PK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="PL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="PM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="PN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="PO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="PP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="PQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="PR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="PS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="PT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="PU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="PV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="PW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="PX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="PY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="PZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="QA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="QB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="QC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="QD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="QE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="QF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="QG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="QH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="QI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="QJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="QK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="QL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="QM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="QN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="QO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="QP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="QQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="QR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="QS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="QT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="QU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="QV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="QW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="QX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="QY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="QZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="RA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="RB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="RC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="RD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="RE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="RF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="RG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="RH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="RI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="RJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="RK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="RL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="RM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="RN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="RO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="RP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="RQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="RR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="RS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="RT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="RU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="RV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="RW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="RX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="RY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="RZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="SA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="SB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="SC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="SD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="SE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="SF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="SG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="SH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="SI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="SJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="SK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="SL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="SM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="SN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="SO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="SP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="SQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="SR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="SS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="ST4" t="n">
-        <v>0</v>
-      </c>
-      <c r="SU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="SV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="SW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="SX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="SY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="SZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="TA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="TB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="TC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="TD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="TE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="TF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="TG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="TH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="TI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="TJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="TK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="TL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="TM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="TN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="TO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="TP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="TQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="TR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="TS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="TT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="TU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="TV4" t="n">
-        <v>0</v>
-      </c>
       <c r="TW4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="TX4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="TY4" t="n">
         <v>0</v>
@@ -9820,377 +9478,377 @@
         <v>1</v>
       </c>
       <c r="UA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="UB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="UC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="UD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="UE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="UF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="UG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="UH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="UI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="UJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="UK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="UL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="UM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="UN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="UO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="UP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="UQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="UR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="US4" t="n">
+        <v>0</v>
+      </c>
+      <c r="UT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="UU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="UV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="UW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="UX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="UY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="UZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="VA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="VB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="VC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="VD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="VE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="VF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="VG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="VH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="VI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="VJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="VK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="VL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="VM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="VN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="VO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="VP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="VQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="VR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="VS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="VT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="VU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="VV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="VW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="VX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="VY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="VZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="WA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="WB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="WC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="WD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="WE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="WF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="WG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="WH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="WI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="WJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="WK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="WL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="WM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="WN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="WO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="WP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="WQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="WR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="WS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="WT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="WU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="WV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="WW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="WX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="WY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="WZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="XZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="YA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="YB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="YC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="YD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="YE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="YF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="YG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="YH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="YI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="YJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="YK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="YL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="YM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="YN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="YO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="YP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="YQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="YR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="YS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="YT4" t="n">
         <v>1</v>
       </c>
-      <c r="UB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="UC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="UD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="UE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="UF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="UG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="UH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="UI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="UJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="UK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="UL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="UM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="UN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="UO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="UP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="UQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="UR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="US4" t="n">
-        <v>0</v>
-      </c>
-      <c r="UT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="UU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="UV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="UW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="UX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="UY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="UZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="VA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="VB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="VC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="VD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="VE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="VF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="VG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="VH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="VI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="VJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="VK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="VL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="VM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="VN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="VO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="VP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="VQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="VR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="VS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="VT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="VU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="VV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="VW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="VX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="VY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="VZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="WA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="WB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="WC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="WD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="WE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="WF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="WG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="WH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="WI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="WJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="WK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="WL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="WM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="WN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="WO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="WP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="WQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="WR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="WS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="WT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="WU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="WV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="WW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="WX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="WY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="WZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="XZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="YA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="YB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="YC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="YD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="YE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="YF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="YG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="YH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="YI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="YJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="YK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="YL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="YM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="YN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="YO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="YP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="YQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="YR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="YS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="YT4" t="n">
-        <v>0</v>
-      </c>
       <c r="YU4" t="n">
         <v>0</v>
       </c>
@@ -10267,19 +9925,19 @@
         <v>0</v>
       </c>
       <c r="ZT4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ZU4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ZV4" t="n">
         <v>0</v>
       </c>
       <c r="ZW4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ZX4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ZY4" t="n">
         <v>0</v>
@@ -10324,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="AAM4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AAN4" t="n">
         <v>0</v>
@@ -10480,13 +10138,13 @@
         <v>0</v>
       </c>
       <c r="ACM4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACN4" t="n">
         <v>0</v>
       </c>
       <c r="ACO4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACP4" t="n">
         <v>0</v>
@@ -10510,19 +10168,19 @@
         <v>0</v>
       </c>
       <c r="ACW4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACX4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACY4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACZ4" t="n">
         <v>0</v>
       </c>
       <c r="ADA4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADB4" t="n">
         <v>0</v>
@@ -10645,120 +10303,6 @@
         <v>0</v>
       </c>
       <c r="AEP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AER4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AES4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AET4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AGA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AGB4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11148,16 +10692,16 @@
         <v>0</v>
       </c>
       <c r="DY5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA5" t="n">
         <v>0</v>
       </c>
       <c r="EB5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC5" t="n">
         <v>0</v>
@@ -11178,256 +10722,256 @@
         <v>0</v>
       </c>
       <c r="EI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR5" t="n">
         <v>1</v>
       </c>
-      <c r="EJ5" t="n">
+      <c r="GS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH5" t="n">
         <v>1</v>
       </c>
-      <c r="EK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL5" t="n">
+      <c r="HI5" t="n">
         <v>1</v>
       </c>
-      <c r="EM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER5" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES5" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT5" t="n">
-        <v>1</v>
-      </c>
-      <c r="GU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI5" t="n">
-        <v>0</v>
-      </c>
       <c r="HJ5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HK5" t="n">
         <v>1</v>
       </c>
       <c r="HL5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HM5" t="n">
         <v>1</v>
       </c>
       <c r="HN5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HO5" t="n">
         <v>0</v>
@@ -13227,120 +12771,6 @@
         <v>0</v>
       </c>
       <c r="AEP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AER5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AES5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AET5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AGA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AGB5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14081,214 +13511,214 @@
         <v>0</v>
       </c>
       <c r="IL6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IM6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IN6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IO6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC6" t="n">
         <v>1</v>
       </c>
-      <c r="IQ6" t="n">
+      <c r="JD6" t="n">
         <v>1</v>
       </c>
-      <c r="IR6" t="n">
+      <c r="JE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ6" t="n">
         <v>1</v>
       </c>
-      <c r="IS6" t="n">
+      <c r="JK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ6" t="n">
         <v>1</v>
       </c>
-      <c r="IT6" t="n">
+      <c r="KK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL6" t="n">
         <v>1</v>
       </c>
-      <c r="IU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="IV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="IX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="IY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB6" t="n">
+      <c r="KM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX6" t="n">
         <v>1</v>
       </c>
-      <c r="JC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="JZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KP6" t="n">
+      <c r="KY6" t="n">
         <v>1</v>
       </c>
-      <c r="KQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KR6" t="n">
+      <c r="KZ6" t="n">
         <v>1</v>
       </c>
-      <c r="KS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="KZ6" t="n">
-        <v>0</v>
-      </c>
       <c r="LA6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LB6" t="n">
         <v>1</v>
       </c>
       <c r="LC6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LD6" t="n">
         <v>1</v>
@@ -14303,55 +13733,55 @@
         <v>0</v>
       </c>
       <c r="LH6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LI6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LJ6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LK6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LL6" t="n">
         <v>1</v>
       </c>
       <c r="LM6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LN6" t="n">
         <v>0</v>
       </c>
       <c r="LO6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LP6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LQ6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LR6" t="n">
         <v>0</v>
       </c>
       <c r="LS6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LT6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LU6" t="n">
         <v>0</v>
       </c>
       <c r="LV6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LW6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LX6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LY6" t="n">
         <v>0</v>
@@ -14363,10 +13793,10 @@
         <v>0</v>
       </c>
       <c r="MB6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MC6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MD6" t="n">
         <v>0</v>
@@ -15809,120 +15239,6 @@
         <v>0</v>
       </c>
       <c r="AEP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AER6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AES6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AET6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AEZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AFZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AGA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AGB6" t="n">
         <v>0</v>
       </c>
     </row>
